--- a/data/input_excel/DBLP_detoxify_language_model.xlsx
+++ b/data/input_excel/DBLP_detoxify_language_model.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -383,17 +383,18 @@
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
     <col min="2" max="2" width="96.83203125" customWidth="1"/>
     <col min="3" max="3" width="104.83203125" customWidth="1"/>
-    <col min="4" max="4" width="92.83203125" customWidth="1"/>
+    <col min="4" max="4" width="101.83203125" customWidth="1"/>
     <col min="5" max="5" width="7.83203125" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" customWidth="1"/>
     <col min="7" max="7" width="14.83203125" customWidth="1"/>
     <col min="8" max="8" width="9.83203125" customWidth="1"/>
     <col min="9" max="9" width="41.83203125" customWidth="1"/>
-    <col min="10" max="10" width="183.83203125" customWidth="1"/>
+    <col min="10" max="10" width="185.83203125" customWidth="1"/>
     <col min="11" max="11" width="14.83203125" customWidth="1"/>
     <col min="12" max="12" width="107.83203125" customWidth="1"/>
     <col min="13" max="13" width="35.83203125" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" customWidth="1"/>
+    <col min="14" max="14" width="33.83203125" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -437,6 +438,9 @@
         <v>DOI</v>
       </c>
       <c r="N1" t="str">
+        <v>Series</v>
+      </c>
+      <c r="O1" t="str">
         <v>Eprint ID</v>
       </c>
     </row>
@@ -445,42 +449,45 @@
         <v>Conference Paper</v>
       </c>
       <c r="B2" t="str">
-        <v>Zhang X,Wan X</v>
+        <v>Wang M,Zhang N,Xu Z,Xi Z,Deng S,Yao Y,Zhang Q,Yang L,Wang J,Chen H</v>
       </c>
       <c r="C2" t="str">
-        <v>Rogers A,Boyd-Graber JL,Okazaki N</v>
+        <v>Ku LW,Martins A,Srikumar V</v>
       </c>
       <c r="D2" t="str">
-        <v>MIL-Decoding: Detoxifying Language Models at Token-Level via Multiple Instance Learning</v>
+        <v>Detoxifying Large Language Models via Knowledge Editing</v>
       </c>
       <c r="E2" t="str">
         <v/>
       </c>
       <c r="F2" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G2" t="str">
         <v/>
       </c>
       <c r="H2" t="str">
-        <v>190-202</v>
+        <v>3093-3118</v>
       </c>
       <c r="I2" t="str">
         <v>Association for Computational Linguistics</v>
       </c>
       <c r="J2" t="str">
-        <v>Proceedings of the 61st Annual Meeting of the Association for Computational Linguistics (Volume 1: Long Papers), ACL 2023, Toronto, Canada, July 9-14, 2023</v>
+        <v>Proceedings of the 62nd Annual Meeting of the Association for Computational Linguistics (Volume 1: Long Papers), ACL 2024, Bangkok, Thailand, August 11-16, 2024</v>
       </c>
       <c r="K2" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L2" t="str">
-        <v>https://doi.org/10.18653/v1/2023.acl-long.11;http://dx.doi.org/10.18653/V1/2023.ACL-LONG.11</v>
+        <v>https://doi.org/10.18653/v1/2024.acl-long.171;http://dx.doi.org/10.18653/V1/2024.ACL-LONG.171</v>
       </c>
       <c r="M2" t="str">
-        <v>10.18653/V1/2023.ACL-LONG.11</v>
+        <v>10.18653/V1/2024.ACL-LONG.171</v>
       </c>
       <c r="N2" t="str">
+        <v/>
+      </c>
+      <c r="O2" t="str">
         <v/>
       </c>
     </row>
@@ -489,42 +496,45 @@
         <v>Conference Paper</v>
       </c>
       <c r="B3" t="str">
-        <v>Leong CT,Cheng Y,Wang J,Wang J,Li W</v>
+        <v>Li Q,Du W,Liu J</v>
       </c>
       <c r="C3" t="str">
-        <v>Bouamor H,Pino J,Bali K</v>
+        <v>Wong DF,Wei Z,Yang M</v>
       </c>
       <c r="D3" t="str">
-        <v>Self-Detoxifying Language Models via Toxification Reversal</v>
+        <v>Detoxifying Large Language Models via Kahneman-Tversky Optimization</v>
       </c>
       <c r="E3" t="str">
         <v/>
       </c>
       <c r="F3" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G3" t="str">
-        <v/>
+        <v>15363</v>
       </c>
       <c r="H3" t="str">
-        <v>4433-4449</v>
+        <v>409-417</v>
       </c>
       <c r="I3" t="str">
-        <v>Association for Computational Linguistics</v>
+        <v>Springer</v>
       </c>
       <c r="J3" t="str">
-        <v>Proceedings of the 2023 Conference on Empirical Methods in Natural Language Processing, EMNLP 2023, Singapore, December 6-10, 2023</v>
+        <v>Natural Language Processing and Chinese Computing - 13th National CCF Conference, NLPCC 2024, Hangzhou, China, November 1-3, 2024, Proceedings, Part V</v>
       </c>
       <c r="K3" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L3" t="str">
-        <v>https://aclanthology.org/2023.emnlp-main.269</v>
+        <v>https://doi.org/10.1007/978-981-97-9443-0_36;http://dx.doi.org/10.1007/978-981-97-9443-0_36</v>
       </c>
       <c r="M3" t="str">
-        <v/>
+        <v>10.1007/978-981-97-9443-0_36</v>
       </c>
       <c r="N3" t="str">
+        <v>Lecture Notes in Computer Science</v>
+      </c>
+      <c r="O3" t="str">
         <v/>
       </c>
     </row>
@@ -533,22 +543,22 @@
         <v>Journal Article</v>
       </c>
       <c r="B4" t="str">
-        <v>Tang Z,Zhou K,Wang P,Ding Y,Li J,Zhang M</v>
+        <v>Klein T,Nabi M</v>
       </c>
       <c r="C4" t="str">
         <v/>
       </c>
       <c r="D4" t="str">
-        <v>Detoxify Language Model Step-by-Step</v>
+        <v>Contrastive Perplexity for Controlled Generation: An Application in Detoxifying Large Language Models</v>
       </c>
       <c r="E4" t="str">
         <v>CoRR</v>
       </c>
       <c r="F4" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G4" t="str">
-        <v>abs/2308.08295</v>
+        <v>abs/2401.08491</v>
       </c>
       <c r="H4" t="str">
         <v/>
@@ -560,16 +570,19 @@
         <v/>
       </c>
       <c r="K4" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L4" t="str">
-        <v>https://doi.org/10.48550/arXiv.2308.08295;http://dx.doi.org/10.48550/ARXIV.2308.08295</v>
+        <v>https://doi.org/10.48550/arXiv.2401.08491;http://dx.doi.org/10.48550/ARXIV.2401.08491</v>
       </c>
       <c r="M4" t="str">
-        <v>10.48550/ARXIV.2308.08295</v>
+        <v>10.48550/ARXIV.2401.08491</v>
       </c>
       <c r="N4" t="str">
-        <v>2308.08295</v>
+        <v/>
+      </c>
+      <c r="O4" t="str">
+        <v>2401.08491</v>
       </c>
     </row>
     <row r="5">
@@ -577,22 +590,22 @@
         <v>Journal Article</v>
       </c>
       <c r="B5" t="str">
-        <v>Leong CT,Cheng Y,Wang J,Wang J,Li W</v>
+        <v>Wang M,Zhang N,Xu Z,Xi Z,Deng S,Yao Y,Zhang Q,Yang L,Wang J,Chen H</v>
       </c>
       <c r="C5" t="str">
         <v/>
       </c>
       <c r="D5" t="str">
-        <v>Self-Detoxifying Language Models via Toxification Reversal</v>
+        <v>Detoxifying Large Language Models via Knowledge Editing</v>
       </c>
       <c r="E5" t="str">
         <v>CoRR</v>
       </c>
       <c r="F5" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G5" t="str">
-        <v>abs/2310.09573</v>
+        <v>abs/2403.14472</v>
       </c>
       <c r="H5" t="str">
         <v/>
@@ -604,16 +617,19 @@
         <v/>
       </c>
       <c r="K5" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L5" t="str">
-        <v>https://doi.org/10.48550/arXiv.2310.09573;http://dx.doi.org/10.48550/ARXIV.2310.09573</v>
+        <v>https://doi.org/10.48550/arXiv.2403.14472;http://dx.doi.org/10.48550/ARXIV.2403.14472</v>
       </c>
       <c r="M5" t="str">
-        <v>10.48550/ARXIV.2310.09573</v>
+        <v>10.48550/ARXIV.2403.14472</v>
       </c>
       <c r="N5" t="str">
-        <v>2310.09573</v>
+        <v/>
+      </c>
+      <c r="O5" t="str">
+        <v>2403.14472</v>
       </c>
     </row>
     <row r="6">
@@ -621,42 +637,45 @@
         <v>Conference Paper</v>
       </c>
       <c r="B6" t="str">
-        <v>Park YA,Rudzicz F</v>
+        <v>Zhang X,Wan X</v>
       </c>
       <c r="C6" t="str">
-        <v>Chakravarthi BR,Bharathi B,McCrae JP,Zarrouk M,Bali K,Buitelaar P</v>
+        <v>Rogers A,Boyd-Graber JL,Okazaki N</v>
       </c>
       <c r="D6" t="str">
-        <v>Detoxifying Language Models with a Toxic Corpus</v>
+        <v>MIL-Decoding: Detoxifying Language Models at Token-Level via Multiple Instance Learning</v>
       </c>
       <c r="E6" t="str">
         <v/>
       </c>
       <c r="F6" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G6" t="str">
         <v/>
       </c>
       <c r="H6" t="str">
-        <v>41-46</v>
+        <v>190-202</v>
       </c>
       <c r="I6" t="str">
         <v>Association for Computational Linguistics</v>
       </c>
       <c r="J6" t="str">
-        <v>Proceedings of the Second Workshop on Language Technology for Equality, Diversity and Inclusion, LT-EDI 2022, Dublin, Ireland, May 27, 2022</v>
+        <v>Proceedings of the 61st Annual Meeting of the Association for Computational Linguistics (Volume 1: Long Papers), ACL 2023, Toronto, Canada, July 9-14, 2023</v>
       </c>
       <c r="K6" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="L6" t="str">
-        <v>https://doi.org/10.18653/v1/2022.ltedi-1.6;http://dx.doi.org/10.18653/V1/2022.LTEDI-1.6</v>
+        <v>https://doi.org/10.18653/v1/2023.acl-long.11;http://dx.doi.org/10.18653/V1/2023.ACL-LONG.11</v>
       </c>
       <c r="M6" t="str">
-        <v>10.18653/V1/2022.LTEDI-1.6</v>
+        <v>10.18653/V1/2023.ACL-LONG.11</v>
       </c>
       <c r="N6" t="str">
+        <v/>
+      </c>
+      <c r="O6" t="str">
         <v/>
       </c>
     </row>
@@ -665,42 +684,45 @@
         <v>Conference Paper</v>
       </c>
       <c r="B7" t="str">
-        <v>Wang B,Ping W,Xiao C,Xu P,Patwary M,Shoeybi M,Li B,Anandkumar A,Catanzaro B</v>
+        <v>Leong CT,Cheng Y,Wang J,Wang J,Li W</v>
       </c>
       <c r="C7" t="str">
-        <v/>
+        <v>Bouamor H,Pino J,Bali K</v>
       </c>
       <c r="D7" t="str">
-        <v>Exploring the Limits of Domain-Adaptive Training for Detoxifying Large-Scale Language Models</v>
+        <v>Self-Detoxifying Language Models via Toxification Reversal</v>
       </c>
       <c r="E7" t="str">
         <v/>
       </c>
       <c r="F7" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G7" t="str">
         <v/>
       </c>
       <c r="H7" t="str">
-        <v/>
+        <v>4433-4449</v>
       </c>
       <c r="I7" t="str">
-        <v/>
+        <v>Association for Computational Linguistics</v>
       </c>
       <c r="J7" t="str">
-        <v>NeurIPS</v>
+        <v>Proceedings of the 2023 Conference on Empirical Methods in Natural Language Processing, EMNLP 2023, Singapore, December 6-10, 2023</v>
       </c>
       <c r="K7" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="L7" t="str">
-        <v>http://papers.nips.cc/paper_files/paper/2022/hash/e8c20cafe841cba3e31a17488dc9c3f1-Abstract-Conference.html</v>
+        <v>https://doi.org/10.18653/v1/2023.emnlp-main.269;http://dx.doi.org/10.18653/V1/2023.EMNLP-MAIN.269</v>
       </c>
       <c r="M7" t="str">
-        <v/>
+        <v>10.18653/V1/2023.EMNLP-MAIN.269</v>
       </c>
       <c r="N7" t="str">
+        <v/>
+      </c>
+      <c r="O7" t="str">
         <v/>
       </c>
     </row>
@@ -709,22 +731,22 @@
         <v>Journal Article</v>
       </c>
       <c r="B8" t="str">
-        <v>Wang B,Ping W,Xiao C,Xu P,Patwary M,Shoeybi M,Li B,Anandkumar A,Catanzaro B</v>
+        <v>Tang Z,Zhou K,Wang P,Ding Y,Li J,Zhang M</v>
       </c>
       <c r="C8" t="str">
         <v/>
       </c>
       <c r="D8" t="str">
-        <v>Exploring the Limits of Domain-Adaptive Training for Detoxifying Large-Scale Language Models</v>
+        <v>Detoxify Language Model Step-by-Step</v>
       </c>
       <c r="E8" t="str">
         <v>CoRR</v>
       </c>
       <c r="F8" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G8" t="str">
-        <v>abs/2202.04173</v>
+        <v>abs/2308.08295</v>
       </c>
       <c r="H8" t="str">
         <v/>
@@ -736,16 +758,19 @@
         <v/>
       </c>
       <c r="K8" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="L8" t="str">
-        <v>https://arxiv.org/abs/2202.04173</v>
+        <v>https://doi.org/10.48550/arXiv.2308.08295;http://dx.doi.org/10.48550/ARXIV.2308.08295</v>
       </c>
       <c r="M8" t="str">
-        <v/>
+        <v>10.48550/ARXIV.2308.08295</v>
       </c>
       <c r="N8" t="str">
-        <v>2202.04173</v>
+        <v/>
+      </c>
+      <c r="O8" t="str">
+        <v>2308.08295</v>
       </c>
     </row>
     <row r="9">
@@ -753,22 +778,22 @@
         <v>Journal Article</v>
       </c>
       <c r="B9" t="str">
-        <v>Park YA,Rudzicz F</v>
+        <v>Leong CT,Cheng Y,Wang J,Wang J,Li W</v>
       </c>
       <c r="C9" t="str">
         <v/>
       </c>
       <c r="D9" t="str">
-        <v>Detoxifying Language Models with a Toxic Corpus</v>
+        <v>Self-Detoxifying Language Models via Toxification Reversal</v>
       </c>
       <c r="E9" t="str">
         <v>CoRR</v>
       </c>
       <c r="F9" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G9" t="str">
-        <v>abs/2205.00320</v>
+        <v>abs/2310.09573</v>
       </c>
       <c r="H9" t="str">
         <v/>
@@ -780,16 +805,19 @@
         <v/>
       </c>
       <c r="K9" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="L9" t="str">
-        <v>https://doi.org/10.48550/arXiv.2205.00320;http://dx.doi.org/10.48550/ARXIV.2205.00320</v>
+        <v>https://doi.org/10.48550/arXiv.2310.09573;http://dx.doi.org/10.48550/ARXIV.2310.09573</v>
       </c>
       <c r="M9" t="str">
-        <v>10.48550/ARXIV.2205.00320</v>
+        <v>10.48550/ARXIV.2310.09573</v>
       </c>
       <c r="N9" t="str">
-        <v>2205.00320</v>
+        <v/>
+      </c>
+      <c r="O9" t="str">
+        <v>2310.09573</v>
       </c>
     </row>
     <row r="10">
@@ -797,42 +825,45 @@
         <v>Conference Paper</v>
       </c>
       <c r="B10" t="str">
-        <v>Welbl J,Glaese A,Uesato J,Dathathri S,Mellor J,Hendricks LA,Anderson K,Kohli P,Coppin B,Huang PS</v>
+        <v>Park YA,Rudzicz F</v>
       </c>
       <c r="C10" t="str">
-        <v>Moens MF,Huang X,Specia L,Yih SW</v>
+        <v>Chakravarthi BR,Bharathi B,McCrae JP,Zarrouk M,Bali K,Buitelaar P</v>
       </c>
       <c r="D10" t="str">
-        <v>Challenges in Detoxifying Language Models</v>
+        <v>Detoxifying Language Models with a Toxic Corpus</v>
       </c>
       <c r="E10" t="str">
         <v/>
       </c>
       <c r="F10" t="str">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G10" t="str">
         <v/>
       </c>
       <c r="H10" t="str">
-        <v>2447-2469</v>
+        <v>41-46</v>
       </c>
       <c r="I10" t="str">
         <v>Association for Computational Linguistics</v>
       </c>
       <c r="J10" t="str">
-        <v>Findings of the Association for Computational Linguistics: EMNLP 2021, Virtual Event / Punta Cana, Dominican Republic, 16-20 November, 2021</v>
+        <v>Proceedings of the Second Workshop on Language Technology for Equality, Diversity and Inclusion, LT-EDI 2022, Dublin, Ireland, May 27, 2022</v>
       </c>
       <c r="K10" t="str">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="L10" t="str">
-        <v>https://doi.org/10.18653/v1/2021.findings-emnlp.210;http://dx.doi.org/10.18653/V1/2021.FINDINGS-EMNLP.210</v>
+        <v>https://doi.org/10.18653/v1/2022.ltedi-1.6;http://dx.doi.org/10.18653/V1/2022.LTEDI-1.6</v>
       </c>
       <c r="M10" t="str">
-        <v>10.18653/V1/2021.FINDINGS-EMNLP.210</v>
+        <v>10.18653/V1/2022.LTEDI-1.6</v>
       </c>
       <c r="N10" t="str">
+        <v/>
+      </c>
+      <c r="O10" t="str">
         <v/>
       </c>
     </row>
@@ -841,42 +872,45 @@
         <v>Conference Paper</v>
       </c>
       <c r="B11" t="str">
-        <v>Xu A,Pathak E,Wallace E,Gururangan S,Sap M,Klein D</v>
+        <v>Wang B,Ping W,Xiao C,Xu P,Patwary M,Shoeybi M,Li B,Anandkumar A,Catanzaro B</v>
       </c>
       <c r="C11" t="str">
-        <v>Toutanova K,Rumshisky A,Zettlemoyer L,Hakkani-Tür D,Beltagy I,Bethard S,Cotterell R,Chakraborty T,Zhou Y</v>
+        <v>Koyejo S,Mohamed S,Agarwal A,Belgrave D,Cho K,Oh A</v>
       </c>
       <c r="D11" t="str">
-        <v>Detoxifying Language Models Risks Marginalizing Minority Voices</v>
+        <v>Exploring the Limits of Domain-Adaptive Training for Detoxifying Large-Scale Language Models</v>
       </c>
       <c r="E11" t="str">
         <v/>
       </c>
       <c r="F11" t="str">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G11" t="str">
         <v/>
       </c>
       <c r="H11" t="str">
-        <v>2390-2397</v>
+        <v/>
       </c>
       <c r="I11" t="str">
-        <v>Association for Computational Linguistics</v>
+        <v/>
       </c>
       <c r="J11" t="str">
-        <v>Proceedings of the 2021 Conference of the North American Chapter of the Association for Computational Linguistics: Human Language Technologies, NAACL-HLT 2021, Online, June 6-11, 2021</v>
+        <v>Advances in Neural Information Processing Systems 35: Annual Conference on Neural Information Processing Systems 2022, NeurIPS 2022, New Orleans, LA, USA, November 28 - December 9, 2022</v>
       </c>
       <c r="K11" t="str">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="L11" t="str">
-        <v>https://doi.org/10.18653/v1/2021.naacl-main.190;http://dx.doi.org/10.18653/V1/2021.NAACL-MAIN.190</v>
+        <v>http://papers.nips.cc/paper_files/paper/2022/hash/e8c20cafe841cba3e31a17488dc9c3f1-Abstract-Conference.html</v>
       </c>
       <c r="M11" t="str">
-        <v>10.18653/V1/2021.NAACL-MAIN.190</v>
+        <v/>
       </c>
       <c r="N11" t="str">
+        <v/>
+      </c>
+      <c r="O11" t="str">
         <v/>
       </c>
     </row>
@@ -885,22 +919,22 @@
         <v>Journal Article</v>
       </c>
       <c r="B12" t="str">
-        <v>Xu A,Pathak E,Wallace E,Gururangan S,Sap M,Klein D</v>
+        <v>Wang B,Ping W,Xiao C,Xu P,Patwary M,Shoeybi M,Li B,Anandkumar A,Catanzaro B</v>
       </c>
       <c r="C12" t="str">
         <v/>
       </c>
       <c r="D12" t="str">
-        <v>Detoxifying Language Models Risks Marginalizing Minority Voices</v>
+        <v>Exploring the Limits of Domain-Adaptive Training for Detoxifying Large-Scale Language Models</v>
       </c>
       <c r="E12" t="str">
         <v>CoRR</v>
       </c>
       <c r="F12" t="str">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G12" t="str">
-        <v>abs/2104.06390</v>
+        <v>abs/2202.04173</v>
       </c>
       <c r="H12" t="str">
         <v/>
@@ -912,16 +946,19 @@
         <v/>
       </c>
       <c r="K12" t="str">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="L12" t="str">
-        <v>https://arxiv.org/abs/2104.06390</v>
+        <v>https://arxiv.org/abs/2202.04173</v>
       </c>
       <c r="M12" t="str">
         <v/>
       </c>
       <c r="N12" t="str">
-        <v>2104.06390</v>
+        <v/>
+      </c>
+      <c r="O12" t="str">
+        <v>2202.04173</v>
       </c>
     </row>
     <row r="13">
@@ -929,48 +966,239 @@
         <v>Journal Article</v>
       </c>
       <c r="B13" t="str">
-        <v>Welbl J,Glaese A,Uesato J,Dathathri S,Mellor J,Hendricks LA,Anderson K,Kohli P,Coppin B,Huang PS</v>
+        <v>Park YA,Rudzicz F</v>
       </c>
       <c r="C13" t="str">
         <v/>
       </c>
       <c r="D13" t="str">
-        <v>Challenges in Detoxifying Language Models</v>
+        <v>Detoxifying Language Models with a Toxic Corpus</v>
       </c>
       <c r="E13" t="str">
         <v>CoRR</v>
       </c>
       <c r="F13" t="str">
+        <v>2022</v>
+      </c>
+      <c r="G13" t="str">
+        <v>abs/2205.00320</v>
+      </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <v>2022</v>
+      </c>
+      <c r="L13" t="str">
+        <v>https://doi.org/10.48550/arXiv.2205.00320;http://dx.doi.org/10.48550/ARXIV.2205.00320</v>
+      </c>
+      <c r="M13" t="str">
+        <v>10.48550/ARXIV.2205.00320</v>
+      </c>
+      <c r="N13" t="str">
+        <v/>
+      </c>
+      <c r="O13" t="str">
+        <v>2205.00320</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Welbl J,Glaese A,Uesato J,Dathathri S,Mellor J,Hendricks LA,Anderson K,Kohli P,Coppin B,Huang PS</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Moens MF,Huang X,Specia L,Yih SW</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Challenges in Detoxifying Language Models</v>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
         <v>2021</v>
       </c>
-      <c r="G13" t="str">
+      <c r="G14" t="str">
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <v>2447-2469</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Association for Computational Linguistics</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Findings of the Association for Computational Linguistics: EMNLP 2021, Virtual Event / Punta Cana, Dominican Republic, 16-20 November, 2021</v>
+      </c>
+      <c r="K14" t="str">
+        <v>2021</v>
+      </c>
+      <c r="L14" t="str">
+        <v>https://doi.org/10.18653/v1/2021.findings-emnlp.210;http://dx.doi.org/10.18653/V1/2021.FINDINGS-EMNLP.210</v>
+      </c>
+      <c r="M14" t="str">
+        <v>10.18653/V1/2021.FINDINGS-EMNLP.210</v>
+      </c>
+      <c r="N14" t="str">
+        <v/>
+      </c>
+      <c r="O14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Xu A,Pathak E,Wallace E,Gururangan S,Sap M,Klein D</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Toutanova K,Rumshisky A,Zettlemoyer L,Hakkani-Tür D,Beltagy I,Bethard S,Cotterell R,Chakraborty T,Zhou Y</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Detoxifying Language Models Risks Marginalizing Minority Voices</v>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v>2021</v>
+      </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <v>2390-2397</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Association for Computational Linguistics</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Proceedings of the 2021 Conference of the North American Chapter of the Association for Computational Linguistics: Human Language Technologies, NAACL-HLT 2021, Online, June 6-11, 2021</v>
+      </c>
+      <c r="K15" t="str">
+        <v>2021</v>
+      </c>
+      <c r="L15" t="str">
+        <v>https://doi.org/10.18653/v1/2021.naacl-main.190;http://dx.doi.org/10.18653/V1/2021.NAACL-MAIN.190</v>
+      </c>
+      <c r="M15" t="str">
+        <v>10.18653/V1/2021.NAACL-MAIN.190</v>
+      </c>
+      <c r="N15" t="str">
+        <v/>
+      </c>
+      <c r="O15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Xu A,Pathak E,Wallace E,Gururangan S,Sap M,Klein D</v>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v>Detoxifying Language Models Risks Marginalizing Minority Voices</v>
+      </c>
+      <c r="E16" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F16" t="str">
+        <v>2021</v>
+      </c>
+      <c r="G16" t="str">
+        <v>abs/2104.06390</v>
+      </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <v>2021</v>
+      </c>
+      <c r="L16" t="str">
+        <v>https://arxiv.org/abs/2104.06390</v>
+      </c>
+      <c r="M16" t="str">
+        <v/>
+      </c>
+      <c r="N16" t="str">
+        <v/>
+      </c>
+      <c r="O16" t="str">
+        <v>2104.06390</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Welbl J,Glaese A,Uesato J,Dathathri S,Mellor J,Hendricks LA,Anderson K,Kohli P,Coppin B,Huang PS</v>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v>Challenges in Detoxifying Language Models</v>
+      </c>
+      <c r="E17" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F17" t="str">
+        <v>2021</v>
+      </c>
+      <c r="G17" t="str">
         <v>abs/2109.07445</v>
       </c>
-      <c r="H13" t="str">
-        <v/>
-      </c>
-      <c r="I13" t="str">
-        <v/>
-      </c>
-      <c r="J13" t="str">
-        <v/>
-      </c>
-      <c r="K13" t="str">
+      <c r="H17" t="str">
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <v/>
+      </c>
+      <c r="K17" t="str">
         <v>2021</v>
       </c>
-      <c r="L13" t="str">
+      <c r="L17" t="str">
         <v>https://arxiv.org/abs/2109.07445</v>
       </c>
-      <c r="M13" t="str">
-        <v/>
-      </c>
-      <c r="N13" t="str">
+      <c r="M17" t="str">
+        <v/>
+      </c>
+      <c r="N17" t="str">
+        <v/>
+      </c>
+      <c r="O17" t="str">
         <v>2109.07445</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O17"/>
   </ignoredErrors>
 </worksheet>
 </file>